--- a/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
+++ b/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB994807-5857-49E2-B2AC-2FC9C9DFF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6968442-0FDD-4400-8EE3-14F10B574842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="337">
   <si>
     <t>B0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI4CS0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI4CS1,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -859,10 +855,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI4SIN,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI3SOUT,SPI4SIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,14 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI4SCK,I2C3SCL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI4SOUT,I2C3SDA,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWM1_M3_CHB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I2C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI_D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWM1_M3_CHB,CSI_D2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,22 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI_D12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSI_D13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSI_D14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSI_D15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSI_PIXCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,6 +1096,34 @@
   </si>
   <si>
     <t>CS or UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_CS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4_CS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_D15,SPI4_CS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_D14,SPI4_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_D13,SPI4_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_D12,SPI4_SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_D1,SPI4_CS3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C63" sqref="A63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1611,7 +1599,7 @@
         <v>264</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1622,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1634,7 +1622,7 @@
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -1646,7 +1634,7 @@
         <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -1714,7 +1702,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1725,10 +1713,10 @@
         <v>104</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1739,7 +1727,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -1751,10 +1739,10 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1765,7 +1753,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -1777,7 +1765,7 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1796,10 +1784,10 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1810,7 +1798,7 @@
         <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1822,10 +1810,10 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1836,7 +1824,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -1848,9 +1836,9 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1859,10 +1847,7 @@
       <c r="B24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1872,11 +1857,9 @@
         <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>290</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -1885,9 +1868,6 @@
       <c r="B26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C26" t="s">
-        <v>275</v>
-      </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1898,7 +1878,10 @@
         <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1909,8 +1892,9 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
@@ -1920,8 +1904,9 @@
         <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
@@ -1931,8 +1916,9 @@
         <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
@@ -1942,11 +1928,9 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
@@ -1956,7 +1940,7 @@
         <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -1968,7 +1952,7 @@
         <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -1980,7 +1964,7 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -1992,10 +1976,10 @@
         <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -2006,7 +1990,7 @@
         <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -2023,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2034,10 +2018,10 @@
         <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -2048,7 +2032,7 @@
         <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -2060,10 +2044,10 @@
         <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -2074,10 +2058,10 @@
         <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -2088,7 +2072,7 @@
         <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -2100,10 +2084,10 @@
         <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -2114,10 +2098,10 @@
         <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -2128,7 +2112,7 @@
         <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D47" s="11"/>
     </row>
@@ -2172,10 +2156,10 @@
         <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2186,7 +2170,7 @@
         <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D53" s="11"/>
     </row>
@@ -2197,6 +2181,12 @@
       <c r="B54" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="C54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -2205,6 +2195,10 @@
       <c r="B55" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="C55" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
@@ -2214,11 +2208,9 @@
         <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>291</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2228,7 +2220,7 @@
         <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D57" s="11"/>
     </row>
@@ -2240,7 +2232,7 @@
         <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="D58" s="11"/>
     </row>
@@ -2252,21 +2244,21 @@
         <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" s="11"/>
+        <v>302</v>
+      </c>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
@@ -2276,9 +2268,9 @@
         <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
@@ -2288,9 +2280,9 @@
         <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
-      </c>
-      <c r="D62" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -2300,9 +2292,9 @@
         <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" s="11"/>
+        <v>336</v>
+      </c>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
@@ -2312,9 +2304,9 @@
         <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
-      </c>
-      <c r="D64" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -2324,9 +2316,9 @@
         <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2352,10 +2344,10 @@
         <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2366,7 +2358,7 @@
         <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -2378,10 +2370,10 @@
         <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -2392,7 +2384,7 @@
         <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D72" s="11"/>
     </row>
@@ -2489,10 +2481,10 @@
         <v>215</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2503,7 +2495,7 @@
         <v>166</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2515,10 +2507,10 @@
         <v>167</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -2529,7 +2521,7 @@
         <v>168</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2541,10 +2533,10 @@
         <v>169</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2555,7 +2547,7 @@
         <v>170</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3082,24 +3074,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D56:D65"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
+++ b/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6968442-0FDD-4400-8EE3-14F10B574842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE7EEF-DC2B-408F-ADBB-BF182E20BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="-103" windowWidth="13920" windowHeight="22149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,14 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI4CS1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI4CS2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI3CS0,SPI4SCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,6 +1116,14 @@
   </si>
   <si>
     <t>CSI_D1,SPI4_CS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4CS2,UART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI4CS1,UART2_RX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C63" sqref="A63:C63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,7 +1599,7 @@
         <v>264</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1610,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -1634,7 +1634,7 @@
         <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1713,10 +1713,10 @@
         <v>104</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1727,7 +1727,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -1739,10 +1739,10 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1753,7 +1753,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -1765,7 +1765,7 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1784,10 +1784,10 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1798,7 +1798,7 @@
         <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1810,10 +1810,10 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1824,7 +1824,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -1836,7 +1836,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -1857,7 +1857,7 @@
         <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -1878,10 +1878,10 @@
         <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1892,7 +1892,7 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -1904,7 +1904,7 @@
         <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -1916,7 +1916,7 @@
         <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -1928,7 +1928,7 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -1940,7 +1940,7 @@
         <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -1952,7 +1952,7 @@
         <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -1964,7 +1964,7 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1990,7 +1990,7 @@
         <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -2007,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2018,10 +2018,10 @@
         <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -2032,7 +2032,7 @@
         <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -2044,10 +2044,10 @@
         <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -2058,10 +2058,10 @@
         <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -2072,7 +2072,7 @@
         <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -2084,10 +2084,10 @@
         <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -2098,10 +2098,10 @@
         <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -2112,7 +2112,7 @@
         <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D47" s="11"/>
     </row>
@@ -2156,10 +2156,10 @@
         <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2170,7 +2170,7 @@
         <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D53" s="11"/>
     </row>
@@ -2182,10 +2182,10 @@
         <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -2196,7 +2196,7 @@
         <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D55" s="11"/>
     </row>
@@ -2208,7 +2208,7 @@
         <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D56" s="11"/>
     </row>
@@ -2220,7 +2220,7 @@
         <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D57" s="11"/>
     </row>
@@ -2232,7 +2232,7 @@
         <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D58" s="11"/>
     </row>
@@ -2244,19 +2244,19 @@
         <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -2268,7 +2268,7 @@
         <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -2292,7 +2292,7 @@
         <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" s="9"/>
     </row>
@@ -2304,7 +2304,7 @@
         <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D64" s="9"/>
     </row>
@@ -2316,7 +2316,7 @@
         <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D65" s="9"/>
     </row>
@@ -2344,10 +2344,10 @@
         <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2358,7 +2358,7 @@
         <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -2370,10 +2370,10 @@
         <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -2384,7 +2384,7 @@
         <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D72" s="11"/>
     </row>
@@ -2481,10 +2481,10 @@
         <v>215</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2495,7 +2495,7 @@
         <v>166</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2507,10 +2507,10 @@
         <v>167</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -2521,7 +2521,7 @@
         <v>168</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2533,10 +2533,10 @@
         <v>169</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2547,7 +2547,7 @@
         <v>170</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3074,6 +3074,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="D54:D59"/>
     <mergeCell ref="D46:D47"/>
@@ -3081,17 +3092,6 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
+++ b/hardware/RT1064核心板丝印与芯片引脚对应表格(已自动还原).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE7EEF-DC2B-408F-ADBB-BF182E20BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF336D6D-B306-4A3C-8FE6-79B82956031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="-103" windowWidth="13920" windowHeight="22149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="338">
   <si>
     <t>B0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI_D0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWM1_M3_CHB,CSI_D2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,14 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSI_D10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSI_D11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSI_PIXCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,6 +1112,22 @@
   </si>
   <si>
     <t>SPI4CS1,UART2_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_VSYNC,REST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_PIXCLK,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1702,7 +1706,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1713,10 +1717,10 @@
         <v>104</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1727,7 +1731,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -1739,10 +1743,10 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1753,7 +1757,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -1810,10 +1814,10 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1824,7 +1828,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -1836,7 +1840,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -1878,7 +1882,7 @@
         <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>284</v>
@@ -1892,7 +1896,7 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -1904,7 +1908,7 @@
         <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -1916,7 +1920,7 @@
         <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -1928,7 +1932,7 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -1940,7 +1944,7 @@
         <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -1952,7 +1956,7 @@
         <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -1964,7 +1968,7 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -1976,10 +1980,10 @@
         <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1990,7 +1994,7 @@
         <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -2007,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2018,10 +2022,10 @@
         <v>187</v>
       </c>
       <c r="C40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -2032,7 +2036,7 @@
         <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -2047,7 +2051,7 @@
         <v>281</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -2058,10 +2062,10 @@
         <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -2072,7 +2076,7 @@
         <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -2087,7 +2091,7 @@
         <v>278</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -2098,10 +2102,10 @@
         <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -2112,7 +2116,7 @@
         <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D47" s="11"/>
     </row>
@@ -2156,10 +2160,10 @@
         <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2170,7 +2174,7 @@
         <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D53" s="11"/>
     </row>
@@ -2182,7 +2186,7 @@
         <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>270</v>
@@ -2196,7 +2200,7 @@
         <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D55" s="11"/>
     </row>
@@ -2208,7 +2212,7 @@
         <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D56" s="11"/>
     </row>
@@ -2220,7 +2224,7 @@
         <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D57" s="11"/>
     </row>
@@ -2232,7 +2236,7 @@
         <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D58" s="11"/>
     </row>
@@ -2244,21 +2248,20 @@
         <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C60" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="11" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
@@ -2267,10 +2270,7 @@
       <c r="B61" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="9"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
@@ -2279,10 +2279,7 @@
       <c r="B62" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="9"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -2292,7 +2289,7 @@
         <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D63" s="9"/>
     </row>
@@ -2304,9 +2301,11 @@
         <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -2316,9 +2315,9 @@
         <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D65" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2347,7 +2346,7 @@
         <v>271</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2373,7 +2372,7 @@
         <v>273</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -2484,7 +2483,7 @@
         <v>275</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2510,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -2536,7 +2535,7 @@
         <v>279</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -3073,18 +3072,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D81:D82"/>
+  <mergeCells count="20">
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D60:D62"/>
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="D54:D59"/>
     <mergeCell ref="D46:D47"/>
@@ -3092,6 +3082,17 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
